--- a/错误日志.xlsx
+++ b/错误日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,13 +46,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id，uid，，sessionid，gameid，gold，oneGold，oneSocre，oneDistance，oneGuai，oneAllsocre，oneIsWin，challengerank，isexpend，roleid，rolelevel，petid，posttime
+    <t>操作日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从排名中删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id，uid，sessionid，gameid，gold，oneGold，oneSocre，oneDistance，oneGuai，oneAllsocre，oneIsWin，challengerank，isexpend，roleid，rolelevel，petid，posttime
 49806，4611，c0f276209f22f890213a2393938640c3，100，5139，8，1020000960，390，10，1020004860，1，0，0，1，1，0，2014-01-17，09:17:57</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>操作日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>rankid,uid,nickname,distance,score,total_score,guai,weeks
+1,3238,阿狸,6040,85174,145574,0,2</t>
   </si>
 </sst>
 </file>
@@ -402,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -428,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -448,7 +460,24 @@
         <v>41658</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>41659</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
